--- a/Next_gen_systems/ict.xlsx
+++ b/Next_gen_systems/ict.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Ortega\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Ortega\Documents\GitHub\collado_ortega_telematics\Next_gen_systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42721EC5-9556-4079-86DC-CA3C1B312C60}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C5C385-D3D7-4EE3-9C33-2E4FD8E5D7F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D5FA373-2358-4EE0-ABA8-B25EA7E08D48}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Cable ant - F.A. (2138)</t>
   </si>
@@ -126,6 +126,66 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>Antes de 5150 (medida en 5150)</t>
+  </si>
+  <si>
+    <t>Hasta 5150 (medida en cable entre 5150 y 5436)</t>
+  </si>
+  <si>
+    <t>Antes de 5436 (medida en 5436)</t>
+  </si>
+  <si>
+    <t>Pérdidas en dB (toma 1)</t>
+  </si>
+  <si>
+    <t>Antes de toma 1 (medida en toma 1)</t>
+  </si>
+  <si>
+    <t>Hasta toma 1</t>
+  </si>
+  <si>
+    <t>Pérdidas en dB (toma 2)</t>
+  </si>
+  <si>
+    <t>Pérdidas en dB (toma 3)</t>
+  </si>
+  <si>
+    <t>Pérdidas en dB (toma 4)</t>
+  </si>
+  <si>
+    <t>Hasta 5436 (medida en cable entre 5436 y toma 2)</t>
+  </si>
+  <si>
+    <t>Hasta 5436 (medida en cable entre 5436 y toma 3)</t>
+  </si>
+  <si>
+    <t>Hasta 5436 (medida en cable entre 5436 y toma 4)</t>
+  </si>
+  <si>
+    <t>Antes de toma 2 (medida en toma 2)</t>
+  </si>
+  <si>
+    <t>Hasta toma 2</t>
+  </si>
+  <si>
+    <t>Antes de toma 3 (medida en toma 3)</t>
+  </si>
+  <si>
+    <t>Antes de toma 4 (medida en toma 4)</t>
+  </si>
+  <si>
+    <t>Hasta toma 4</t>
+  </si>
+  <si>
+    <t>Hasta toma 3</t>
   </si>
 </sst>
 </file>
@@ -181,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,18 +572,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCEC48E-3A77-4A48-89CB-72BA7EE5B121}">
-  <dimension ref="B4:I24"/>
+  <dimension ref="B4:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -637,7 +703,7 @@
         <v>0.6</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" ref="I6:I8" si="1">C7+D7+E7+F7+G7+H7</f>
+        <f t="shared" ref="I7:I8" si="1">C7+D7+E7+F7+G7+H7</f>
         <v>14.1578</v>
       </c>
     </row>
@@ -739,7 +805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -750,7 +816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>17</v>
       </c>
@@ -761,7 +827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -772,7 +838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -783,7 +849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>25</v>
       </c>
@@ -794,7 +860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>23</v>
       </c>
@@ -803,6 +869,273 @@
       </c>
       <c r="E24" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="D28" s="5">
+        <v>4.62</v>
+      </c>
+      <c r="E28" s="5">
+        <v>5.37</v>
+      </c>
+      <c r="F28" s="5">
+        <v>5.97</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4.72</v>
+      </c>
+      <c r="E29" s="5">
+        <v>5.53</v>
+      </c>
+      <c r="F29" s="5">
+        <v>6.13</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4.62</v>
+      </c>
+      <c r="E32" s="5">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F32" s="5">
+        <v>11.69</v>
+      </c>
+      <c r="G32" s="5">
+        <v>12.6</v>
+      </c>
+      <c r="H32" s="5">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4.72</v>
+      </c>
+      <c r="E33" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="F33" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="G33" s="5">
+        <v>12.79</v>
+      </c>
+      <c r="H33" s="5">
+        <v>13.39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="D36" s="5">
+        <v>4.62</v>
+      </c>
+      <c r="E36" s="5">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F36" s="5">
+        <v>11.69</v>
+      </c>
+      <c r="G36" s="5">
+        <v>13.36</v>
+      </c>
+      <c r="H36" s="5">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4.72</v>
+      </c>
+      <c r="E37" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="F37" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="G37" s="5">
+        <v>13.61</v>
+      </c>
+      <c r="H37" s="5">
+        <v>14.21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4.62</v>
+      </c>
+      <c r="E40" s="5">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F40" s="5">
+        <v>11.19</v>
+      </c>
+      <c r="G40" s="5">
+        <v>14</v>
+      </c>
+      <c r="H40" s="5">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="D41" s="5">
+        <v>4.72</v>
+      </c>
+      <c r="E41" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="F41" s="5">
+        <v>11.3</v>
+      </c>
+      <c r="G41" s="5">
+        <v>14.35</v>
+      </c>
+      <c r="H41" s="5">
+        <v>14.95</v>
       </c>
     </row>
   </sheetData>
